--- a/selenisum-suite/src/main/resources/TestDataFiles/SafeWay_TestData.xlsx
+++ b/selenisum-suite/src/main/resources/TestDataFiles/SafeWay_TestData.xlsx
@@ -502,7 +502,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,6 +512,7 @@
     <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">

--- a/selenisum-suite/src/main/resources/TestDataFiles/SafeWay_TestData.xlsx
+++ b/selenisum-suite/src/main/resources/TestDataFiles/SafeWay_TestData.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
+    <sheet name="Jobs" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="36">
   <si>
     <t>TC_Steps_Description</t>
   </si>
@@ -110,6 +111,18 @@
   </si>
   <si>
     <t>SF_NextBTN</t>
+  </si>
+  <si>
+    <t>SafeWay_Jobs1</t>
+  </si>
+  <si>
+    <t>SafeWay_Jobs2</t>
+  </si>
+  <si>
+    <t>SafeWay_Jobs3</t>
+  </si>
+  <si>
+    <t>SafeWay_Jobs4</t>
   </si>
 </sst>
 </file>
@@ -501,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -800,4 +813,309 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/selenisum-suite/src/main/resources/TestDataFiles/SafeWay_TestData.xlsx
+++ b/selenisum-suite/src/main/resources/TestDataFiles/SafeWay_TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="53">
   <si>
     <t>TC_Steps_Description</t>
   </si>
@@ -35,15 +35,9 @@
     <t>Expected</t>
   </si>
   <si>
-    <t>//Launch vtiger application in new browser</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>Fn_ObjectExist</t>
-  </si>
-  <si>
     <t>Fn_SetValue</t>
   </si>
   <si>
@@ -53,83 +47,140 @@
     <t>Fn_Wait</t>
   </si>
   <si>
-    <t>SafeWay_login_launchApp_TC001</t>
-  </si>
-  <si>
     <t>Fn_LaunchApp</t>
   </si>
   <si>
-    <t>SF_V3</t>
-  </si>
-  <si>
-    <t>//Verify Wrong information</t>
-  </si>
-  <si>
-    <t>SF_Btn</t>
-  </si>
-  <si>
-    <t>SafeWay_Submit_Wrong_Year_TC002</t>
-  </si>
-  <si>
-    <t>SF_Error</t>
-  </si>
-  <si>
-    <t>SF_Right</t>
-  </si>
-  <si>
     <t>Fn_SelectValue</t>
   </si>
   <si>
-    <t>//Verify Right information</t>
-  </si>
-  <si>
-    <t>SF_Result</t>
-  </si>
-  <si>
-    <t>SF_GoBack</t>
-  </si>
-  <si>
-    <t>SafeWay_Submit_Right_Year_TC003</t>
-  </si>
-  <si>
-    <t>//Verify User Login With Wrong Information</t>
-  </si>
-  <si>
-    <t>SafeWay_User_Name_Wrong_Information_TC004</t>
-  </si>
-  <si>
-    <t>SF_FirstName</t>
-  </si>
-  <si>
-    <t>SF_LastName</t>
-  </si>
-  <si>
-    <t>hurrrrr</t>
-  </si>
-  <si>
-    <t>furrrrr</t>
-  </si>
-  <si>
-    <t>SF_NextBTN</t>
-  </si>
-  <si>
-    <t>SafeWay_Jobs1</t>
-  </si>
-  <si>
-    <t>SafeWay_Jobs2</t>
-  </si>
-  <si>
-    <t>SafeWay_Jobs3</t>
-  </si>
-  <si>
-    <t>SafeWay_Jobs4</t>
+    <t>// SafeWay Website Launch</t>
+  </si>
+  <si>
+    <t>SF_login_launchApp_TC001</t>
+  </si>
+  <si>
+    <t>//Safeway Sign In With Wrong Information</t>
+  </si>
+  <si>
+    <t>SF_Sign_In_Wrong_Info_TC002</t>
+  </si>
+  <si>
+    <t>SF_SignIn</t>
+  </si>
+  <si>
+    <t>SF_SignIn_Btn</t>
+  </si>
+  <si>
+    <t>Fn_ObjectDisplay</t>
+  </si>
+  <si>
+    <t>SF_SignIn_Warning</t>
+  </si>
+  <si>
+    <t>//Safeway Sign Up With Wrong Information</t>
+  </si>
+  <si>
+    <t>SF_Sign_Up_Wrong_Info_TC003</t>
+  </si>
+  <si>
+    <t>SF_Register</t>
+  </si>
+  <si>
+    <t>SF_Radio_Accept</t>
+  </si>
+  <si>
+    <t>SF_Continue</t>
+  </si>
+  <si>
+    <t>SF_SignUp_Error</t>
+  </si>
+  <si>
+    <t>//Safeway Selecting No or Don't know Radio Button</t>
+  </si>
+  <si>
+    <t>SF_Sign_Up_Don't_Know_Radio_Button_TC004</t>
+  </si>
+  <si>
+    <t>SF_Dont_Know</t>
+  </si>
+  <si>
+    <t>//Safeway Filling Information for Sign Up</t>
+  </si>
+  <si>
+    <t>SF_Sign_Up_Form_Information_Fill_Form_TC005</t>
+  </si>
+  <si>
+    <t>SF_Phone_Number</t>
+  </si>
+  <si>
+    <t>510-111-2222</t>
+  </si>
+  <si>
+    <t>SF_Email</t>
+  </si>
+  <si>
+    <t>abc@abc.com</t>
+  </si>
+  <si>
+    <t>SF_Confirm_Email</t>
+  </si>
+  <si>
+    <t>SF_Password</t>
+  </si>
+  <si>
+    <t>SF_Confirm_Password</t>
+  </si>
+  <si>
+    <t>SF_Security</t>
+  </si>
+  <si>
+    <t>What is your city of birth ?</t>
+  </si>
+  <si>
+    <t>SF_Security_Answer</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>SF_ZipCode</t>
+  </si>
+  <si>
+    <t>99999</t>
+  </si>
+  <si>
+    <t>SF_Email_Subscribe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//Safeway Login </t>
+  </si>
+  <si>
+    <t>SF_Sign_In_TC006</t>
+  </si>
+  <si>
+    <t>SF_User_Email</t>
+  </si>
+  <si>
+    <t>exampleone@domain.com</t>
+  </si>
+  <si>
+    <t>SF_User_Password</t>
+  </si>
+  <si>
+    <t>SF_User_Password_Visible</t>
+  </si>
+  <si>
+    <t>12121212</t>
+  </si>
+  <si>
+    <t>ab12ab12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +192,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,10 +255,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -208,8 +268,17 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -268,7 +337,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,7 +372,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -512,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +610,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -550,277 +619,448 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="E4" s="11"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="E5" s="11"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
       <c r="D8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
+      <c r="A10" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
       <c r="D13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>2016</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
       <c r="D16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
       <c r="D19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="6"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="6"/>
       <c r="D22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="12">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="12">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="12"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E23" r:id="rId1"/>
+    <hyperlink ref="E24" r:id="rId2"/>
+    <hyperlink ref="E34" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A33" sqref="A1:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,7 +1086,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -855,267 +1095,438 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>32</v>
+      <c r="A3" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="E4" s="11"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="E5" s="11"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
       <c r="D8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
+      <c r="A10" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
       <c r="D13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>2016</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
       <c r="D16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
       <c r="D19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="6"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="6"/>
       <c r="D22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="12">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="12">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="12"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E23" r:id="rId1"/>
+    <hyperlink ref="E24" r:id="rId2"/>
+    <hyperlink ref="E34" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/selenisum-suite/src/main/resources/TestDataFiles/SafeWay_TestData.xlsx
+++ b/selenisum-suite/src/main/resources/TestDataFiles/SafeWay_TestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -10,12 +10,12 @@
     <sheet name="Login" sheetId="2" r:id="rId1"/>
     <sheet name="Jobs" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" iterateDelta="1E-4" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="68">
   <si>
     <t>TC_Steps_Description</t>
   </si>
@@ -174,6 +174,51 @@
   </si>
   <si>
     <t>ab12ab12</t>
+  </si>
+  <si>
+    <t>SafeWay_Jobs1</t>
+  </si>
+  <si>
+    <t>SafeWay_Jobs2</t>
+  </si>
+  <si>
+    <t>Fn_DeleteCookies</t>
+  </si>
+  <si>
+    <t>qatest@gmail.com</t>
+  </si>
+  <si>
+    <t>SF_Shopping_Sign_In_TC007</t>
+  </si>
+  <si>
+    <t>SF_Grocery</t>
+  </si>
+  <si>
+    <t>Fn_SwitchToWindow</t>
+  </si>
+  <si>
+    <t>SF_Grocery_Start</t>
+  </si>
+  <si>
+    <t>SF_Grocery_Login</t>
+  </si>
+  <si>
+    <t>SF_Grocery_Password</t>
+  </si>
+  <si>
+    <t>SF_Grocery_LoginButton</t>
+  </si>
+  <si>
+    <t>SF_Grocery_Shoping</t>
+  </si>
+  <si>
+    <t>SF_Grocery_Shoping_Cereal</t>
+  </si>
+  <si>
+    <t>SF_Grocery_Shoping_Brakefast</t>
+  </si>
+  <si>
+    <t>Fn_ActionKeyboard</t>
   </si>
 </sst>
 </file>
@@ -259,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -276,6 +321,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -286,9 +347,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -337,7 +395,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,7 +430,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -581,10 +639,705 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="28"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="29">
+        <v>123456</v>
+      </c>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="29">
+        <v>123456</v>
+      </c>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="20"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="18"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="20"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="16"/>
+      <c r="D41" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="16"/>
+      <c r="D47" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="16"/>
+      <c r="D50" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="16"/>
+      <c r="D51" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E24" r:id="rId1"/>
+    <hyperlink ref="E25" r:id="rId2"/>
+    <hyperlink ref="E35" r:id="rId3" display="mailto:qatest@gmail.com"/>
+    <hyperlink ref="E46" r:id="rId4" display="mailto:qatest@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,8 +1381,8 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
+      <c r="A3" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -672,484 +1425,8 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="12">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="12">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="12"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="12"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="12"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E23" r:id="rId1"/>
-    <hyperlink ref="E24" r:id="rId2"/>
-    <hyperlink ref="E34" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A33" sqref="A1:F37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
+      <c r="A7" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>

--- a/selenisum-suite/src/main/resources/TestDataFiles/SafeWay_TestData.xlsx
+++ b/selenisum-suite/src/main/resources/TestDataFiles/SafeWay_TestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -10,12 +10,12 @@
     <sheet name="Login" sheetId="2" r:id="rId1"/>
     <sheet name="Jobs" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="53">
   <si>
     <t>TC_Steps_Description</t>
   </si>
@@ -174,51 +174,6 @@
   </si>
   <si>
     <t>ab12ab12</t>
-  </si>
-  <si>
-    <t>SafeWay_Jobs1</t>
-  </si>
-  <si>
-    <t>SafeWay_Jobs2</t>
-  </si>
-  <si>
-    <t>Fn_DeleteCookies</t>
-  </si>
-  <si>
-    <t>qatest@gmail.com</t>
-  </si>
-  <si>
-    <t>SF_Shopping_Sign_In_TC007</t>
-  </si>
-  <si>
-    <t>SF_Grocery</t>
-  </si>
-  <si>
-    <t>Fn_SwitchToWindow</t>
-  </si>
-  <si>
-    <t>SF_Grocery_Start</t>
-  </si>
-  <si>
-    <t>SF_Grocery_Login</t>
-  </si>
-  <si>
-    <t>SF_Grocery_Password</t>
-  </si>
-  <si>
-    <t>SF_Grocery_LoginButton</t>
-  </si>
-  <si>
-    <t>SF_Grocery_Shoping</t>
-  </si>
-  <si>
-    <t>SF_Grocery_Shoping_Cereal</t>
-  </si>
-  <si>
-    <t>SF_Grocery_Shoping_Brakefast</t>
-  </si>
-  <si>
-    <t>Fn_ActionKeyboard</t>
   </si>
 </sst>
 </file>
@@ -304,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -321,22 +276,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -347,6 +286,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -395,7 +337,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -430,7 +372,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -639,705 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="22"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="20"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="29">
-        <v>123456</v>
-      </c>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="29">
-        <v>123456</v>
-      </c>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="16"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" s="16"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="18"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="20"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-    </row>
-    <row r="44" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="F46" s="16"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="16"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E24" r:id="rId1"/>
-    <hyperlink ref="E25" r:id="rId2"/>
-    <hyperlink ref="E35" r:id="rId3" display="mailto:qatest@gmail.com"/>
-    <hyperlink ref="E46" r:id="rId4" display="mailto:qatest@gmail.com"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,8 +628,8 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>53</v>
+      <c r="A3" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1425,8 +672,484 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>54</v>
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="12">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="12">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="12"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E23" r:id="rId1"/>
+    <hyperlink ref="E24" r:id="rId2"/>
+    <hyperlink ref="E34" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A33" sqref="A1:F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>

--- a/selenisum-suite/src/main/resources/TestDataFiles/SafeWay_TestData.xlsx
+++ b/selenisum-suite/src/main/resources/TestDataFiles/SafeWay_TestData.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26819"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="17240" windowHeight="12760"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="2" r:id="rId1"/>
     <sheet name="Jobs" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="93">
   <si>
     <t>TC_Steps_Description</t>
   </si>
@@ -174,6 +179,126 @@
   </si>
   <si>
     <t>ab12ab12</t>
+  </si>
+  <si>
+    <t>Fn_DeleteCookies</t>
+  </si>
+  <si>
+    <t>SF_Save</t>
+  </si>
+  <si>
+    <t>SF_Reg_Error</t>
+  </si>
+  <si>
+    <t>SF_FirstName</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>SF_LastName</t>
+  </si>
+  <si>
+    <t>Bond</t>
+  </si>
+  <si>
+    <t>SF_Select_Store</t>
+  </si>
+  <si>
+    <t>Safeway - 1790 Decoto Rd Union City,CA 94587</t>
+  </si>
+  <si>
+    <t>qatest@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//Safeway Shopping </t>
+  </si>
+  <si>
+    <t>SF_Shopping_Sign_In_TC007</t>
+  </si>
+  <si>
+    <t>SF_Grocery</t>
+  </si>
+  <si>
+    <t>Fn_SwitchToWindow</t>
+  </si>
+  <si>
+    <t>SF_Grocery_Start</t>
+  </si>
+  <si>
+    <t>SF_Grocery_Login</t>
+  </si>
+  <si>
+    <t>SF_Grocery_Password</t>
+  </si>
+  <si>
+    <t>SF_Grocery_LoginButton</t>
+  </si>
+  <si>
+    <t>SF_Grocery_Shoping</t>
+  </si>
+  <si>
+    <t>SF_Grocery_Shoping_Cereal</t>
+  </si>
+  <si>
+    <t>SF_Cereal</t>
+  </si>
+  <si>
+    <t>SF_Cereal_Item</t>
+  </si>
+  <si>
+    <t>SF_Ceareal_Iteam_Count</t>
+  </si>
+  <si>
+    <t>SF_Ceareal_Iteam_Add</t>
+  </si>
+  <si>
+    <t>SF_Checkout</t>
+  </si>
+  <si>
+    <t>SF_Delivery_Change</t>
+  </si>
+  <si>
+    <t>SF_Delivery_Date</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>SF_Continue2</t>
+  </si>
+  <si>
+    <t>SF_CreditCard_Holder</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>SF_CreditCard_Number</t>
+  </si>
+  <si>
+    <t>1234567891234567</t>
+  </si>
+  <si>
+    <t>SF_CreditCard_Expiry_Month</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>SF_CreditCard_Expiry_Year</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>SF_Card_Verification</t>
+  </si>
+  <si>
+    <t>SF_Billing_ZipCode</t>
+  </si>
+  <si>
+    <t>94587</t>
   </si>
 </sst>
 </file>
@@ -241,16 +366,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -259,7 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -276,6 +401,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -337,7 +464,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,7 +499,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -581,23 +708,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -627,7 +753,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -637,7 +763,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -649,409 +775,772 @@
       <c r="E4" s="11"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D9" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="D10" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="D11" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D14" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D15" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="12">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="14">
+        <v>94587</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>75</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="12">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="12">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="D61" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="12"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="12"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="12"/>
+      <c r="B66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E23" r:id="rId1"/>
-    <hyperlink ref="E24" r:id="rId2"/>
-    <hyperlink ref="E34" r:id="rId3"/>
+    <hyperlink ref="E26" r:id="rId1"/>
+    <hyperlink ref="E37" r:id="rId2" display="mailto:qatest@gmail.com"/>
+    <hyperlink ref="E47" r:id="rId3" display="mailto:qatest@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1063,17 +1552,17 @@
       <selection activeCell="A33" sqref="A1:F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1093,7 +1582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1103,7 +1592,7 @@
       <c r="E2" s="9"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -1113,7 +1602,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -1125,7 +1614,7 @@
       <c r="E4" s="11"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -1137,7 +1626,7 @@
       <c r="E5" s="11"/>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1147,7 +1636,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1157,7 +1646,7 @@
       <c r="E7" s="10"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -1169,7 +1658,7 @@
       </c>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -1181,7 +1670,7 @@
       </c>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
@@ -1193,7 +1682,7 @@
       </c>
       <c r="E10" s="12"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1203,7 +1692,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -1213,7 +1702,7 @@
       <c r="E12" s="10"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
@@ -1225,7 +1714,7 @@
       </c>
       <c r="E13" s="12"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -1237,7 +1726,7 @@
       </c>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
@@ -1249,7 +1738,7 @@
       </c>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -1261,7 +1750,7 @@
       </c>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -1271,7 +1760,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
@@ -1281,7 +1770,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
@@ -1293,7 +1782,7 @@
       </c>
       <c r="E19" s="12"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -1303,7 +1792,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="6" t="s">
         <v>30</v>
       </c>
@@ -1313,7 +1802,7 @@
       <c r="E21" s="10"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="6" t="s">
         <v>7</v>
       </c>
@@ -1327,7 +1816,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="6" t="s">
         <v>7</v>
       </c>
@@ -1341,7 +1830,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="6" t="s">
         <v>7</v>
       </c>
@@ -1355,7 +1844,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="6" t="s">
         <v>7</v>
       </c>
@@ -1369,7 +1858,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="6" t="s">
         <v>7</v>
       </c>
@@ -1383,7 +1872,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="6" t="s">
         <v>11</v>
       </c>
@@ -1397,7 +1886,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="6" t="s">
         <v>7</v>
       </c>
@@ -1411,7 +1900,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="6" t="s">
         <v>7</v>
       </c>
@@ -1425,7 +1914,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="6" t="s">
         <v>8</v>
       </c>
@@ -1437,7 +1926,7 @@
       </c>
       <c r="E30" s="12"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
         <v>45</v>
       </c>
@@ -1447,7 +1936,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="4" t="s">
         <v>46</v>
       </c>
@@ -1457,7 +1946,7 @@
       <c r="E32" s="10"/>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="6" t="s">
         <v>8</v>
       </c>
@@ -1469,7 +1958,7 @@
       </c>
       <c r="E33" s="12"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="6" t="s">
         <v>7</v>
       </c>
@@ -1483,7 +1972,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="6" t="s">
         <v>8</v>
       </c>
@@ -1495,7 +1984,7 @@
       </c>
       <c r="E35" s="12"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="6" t="s">
         <v>7</v>
       </c>
@@ -1509,7 +1998,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="6" t="s">
         <v>8</v>
       </c>
@@ -1528,5 +2017,10 @@
     <hyperlink ref="E34" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>